--- a/Mobilni telefoni.xlsx
+++ b/Mobilni telefoni.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.perisic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.perisic/Desktop/KP/Mobilni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175349F4-99D8-8A45-98C7-E5872EF6BBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C062ACB-8DD4-E04E-9500-B9A0F37892E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E53D33F5-908F-394B-9CE5-11BA7ED7F3CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E53D33F5-908F-394B-9CE5-11BA7ED7F3CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Mobilni</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Da</t>
+  </si>
+  <si>
+    <t>Boja</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F47A7B-0B50-9D4C-B9A7-B209C8BEB7B1}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +473,7 @@
     <col min="1" max="1" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,10 +487,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -517,7 +523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -532,7 +538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -547,7 +553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -562,7 +568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -577,7 +583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -592,7 +598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -607,7 +613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -622,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -637,7 +643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -652,7 +658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -667,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -682,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -697,7 +703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
